--- a/artfynd/A 9166-2022.xlsx
+++ b/artfynd/A 9166-2022.xlsx
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99132391</v>
+        <v>99132398</v>
       </c>
       <c r="B7" t="n">
-        <v>94121</v>
+        <v>90653</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1297,25 +1297,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>340559.737086219</v>
+        <v>341080.8537766242</v>
       </c>
       <c r="R7" t="n">
-        <v>6555829.515892345</v>
+        <v>6556037.603631846</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,11 +1385,6 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>barrnaturskog med talldominans</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>tallåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1407,10 +1402,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99132389</v>
+        <v>99132409</v>
       </c>
       <c r="B8" t="n">
-        <v>89412</v>
+        <v>8377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1419,25 +1414,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1447,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>340910.2715792965</v>
+        <v>341328.8048794235</v>
       </c>
       <c r="R8" t="n">
-        <v>6555849.345858485</v>
+        <v>6556142.448534912</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1495,6 +1490,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>gamla gnagspår</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>torrtall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99132394</v>
+        <v>99132418</v>
       </c>
       <c r="B9" t="n">
-        <v>8377</v>
+        <v>89356</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1545,21 +1545,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>106545</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>340826.2260859018</v>
+        <v>341586.0590043708</v>
       </c>
       <c r="R9" t="n">
-        <v>6555933.562909372</v>
+        <v>6556248.461543149</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,11 +1617,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>gamla gnagspår</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1633,12 +1628,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>barrnaturskog med talldominans</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>torrtall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,10 +1651,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99132396</v>
+        <v>99132416</v>
       </c>
       <c r="B10" t="n">
-        <v>93375</v>
+        <v>94121</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1668,25 +1663,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2180</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1691,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>340879.9498507975</v>
+        <v>341548.2723863912</v>
       </c>
       <c r="R10" t="n">
-        <v>6555962.170636989</v>
+        <v>6556256.197766491</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1755,7 +1750,12 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>barrnaturskog med talldominans</t>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99132398</v>
+        <v>99132405</v>
       </c>
       <c r="B11" t="n">
-        <v>90653</v>
+        <v>93375</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1789,21 +1789,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>2180</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>341080.8537766242</v>
+        <v>341232.0755286817</v>
       </c>
       <c r="R11" t="n">
-        <v>6556037.603631846</v>
+        <v>6556107.398725042</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99132409</v>
+        <v>99132382</v>
       </c>
       <c r="B12" t="n">
-        <v>8377</v>
+        <v>89412</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1902,25 +1902,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>341328.8048794235</v>
+        <v>341335.2828762638</v>
       </c>
       <c r="R12" t="n">
-        <v>6556142.448534912</v>
+        <v>6555988.468844471</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1978,11 +1978,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>gamla gnagspår</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1999,7 +1994,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>torrtall</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2017,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99132418</v>
+        <v>99132388</v>
       </c>
       <c r="B13" t="n">
-        <v>89356</v>
+        <v>93375</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2033,21 +2028,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>2180</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2057,10 +2052,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>341586.0590043708</v>
+        <v>341071.4630821242</v>
       </c>
       <c r="R13" t="n">
-        <v>6556248.461543149</v>
+        <v>6555935.68925692</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2116,12 +2111,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>granlåga</t>
+          <t>barrnaturskog med talldominans</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2139,10 +2129,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99132416</v>
+        <v>99132387</v>
       </c>
       <c r="B14" t="n">
-        <v>94121</v>
+        <v>93375</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2151,25 +2141,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>2180</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2179,10 +2169,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>341548.2723863912</v>
+        <v>341163.2317166748</v>
       </c>
       <c r="R14" t="n">
-        <v>6556256.197766491</v>
+        <v>6555950.379509101</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2238,12 +2228,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>tallåga</t>
+          <t>barrnaturskog med talldominans</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2261,7 +2246,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99132405</v>
+        <v>99132384</v>
       </c>
       <c r="B15" t="n">
         <v>93375</v>
@@ -2301,10 +2286,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>341232.0755286817</v>
+        <v>341213.330234039</v>
       </c>
       <c r="R15" t="n">
-        <v>6556107.398725042</v>
+        <v>6555990.966445948</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2378,10 +2363,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99132395</v>
+        <v>99132401</v>
       </c>
       <c r="B16" t="n">
-        <v>89412</v>
+        <v>90653</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2390,25 +2375,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5442</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2418,10 +2403,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>340848.3967964154</v>
+        <v>341106.8138842176</v>
       </c>
       <c r="R16" t="n">
-        <v>6555946.519873871</v>
+        <v>6556055.0307057</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2478,11 +2463,6 @@
       <c r="AI16" t="inlineStr">
         <is>
           <t>barrnaturskog med talldominans</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2500,10 +2480,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99132382</v>
+        <v>99132404</v>
       </c>
       <c r="B17" t="n">
-        <v>89412</v>
+        <v>79433</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2516,21 +2496,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5442</v>
+        <v>1049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2540,10 +2520,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>341335.2828762638</v>
+        <v>341144.3634203465</v>
       </c>
       <c r="R17" t="n">
-        <v>6555988.468844471</v>
+        <v>6556066.320872108</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2604,7 +2584,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>torraka</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2622,7 +2602,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99132388</v>
+        <v>99132402</v>
       </c>
       <c r="B18" t="n">
         <v>93375</v>
@@ -2662,10 +2642,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>341071.4630821242</v>
+        <v>341116.7527608229</v>
       </c>
       <c r="R18" t="n">
-        <v>6555935.68925692</v>
+        <v>6556058.729926346</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2739,10 +2719,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99132387</v>
+        <v>99906700</v>
       </c>
       <c r="B19" t="n">
-        <v>93375</v>
+        <v>77258</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2751,41 +2731,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2180</v>
+        <v>6446</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Silvertall, Dls</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>341163.2317166748</v>
+        <v>341144.7921475561</v>
       </c>
       <c r="R19" t="n">
-        <v>6555950.379509101</v>
+        <v>6556064.246701518</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2809,7 +2792,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2819,7 +2802,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2827,39 +2810,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs. Upptäckare Ingvar 2 som såg något intressant på samma silvertall som ärgspiken.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99132393</v>
+        <v>99906692</v>
       </c>
       <c r="B20" t="n">
-        <v>93375</v>
+        <v>73507</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2872,37 +2856,40 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2180</v>
+        <v>6428</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Blöt remsa, Dls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>340742.1469427192</v>
+        <v>341353.6632309288</v>
       </c>
       <c r="R20" t="n">
-        <v>6555893.368408962</v>
+        <v>6555984.620782993</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2926,7 +2913,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2936,7 +2923,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2944,36 +2931,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99132384</v>
+        <v>99906701</v>
       </c>
       <c r="B21" t="n">
         <v>93375</v>
@@ -3009,14 +2997,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Tallhed, Dls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>341213.330234039</v>
+        <v>341172.2087173784</v>
       </c>
       <c r="R21" t="n">
-        <v>6555990.966445948</v>
+        <v>6556079.557143834</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3043,7 +3031,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3053,7 +3041,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3061,6 +3049,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -3069,31 +3062,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99132401</v>
+        <v>99907797</v>
       </c>
       <c r="B22" t="n">
-        <v>90653</v>
+        <v>94121</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3102,41 +3090,45 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Låga, Dls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>341106.8138842176</v>
+        <v>341552.4551206058</v>
       </c>
       <c r="R22" t="n">
-        <v>6556055.0307057</v>
+        <v>6556232.891735436</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3160,7 +3152,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3170,7 +3162,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3178,39 +3170,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99132404</v>
+        <v>99907368</v>
       </c>
       <c r="B23" t="n">
-        <v>79433</v>
+        <v>93375</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3219,41 +3212,45 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1049</v>
+        <v>2180</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Tallskog, Dls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>341144.3634203465</v>
+        <v>341164.3885279179</v>
       </c>
       <c r="R23" t="n">
-        <v>6556066.320872108</v>
+        <v>6556089.649914237</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3277,7 +3274,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3287,7 +3284,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3295,44 +3292,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>torraka</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Robin Karlsson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99132402</v>
+        <v>99957040</v>
       </c>
       <c r="B24" t="n">
-        <v>93375</v>
+        <v>89412</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3341,38 +3334,53 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Bengtsfors, Dls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>341116.7527608229</v>
+        <v>341038.3563264356</v>
       </c>
       <c r="R24" t="n">
-        <v>6556058.729926346</v>
+        <v>6556018.808509341</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3399,22 +3407,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3423,37 +3431,58 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>barrnaturskog med talldominans</t>
+          <t>Naturskog med tallinslag</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Nina Viereckel</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Nina Viereckel</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99906700</v>
+        <v>99907131</v>
       </c>
       <c r="B25" t="n">
-        <v>77258</v>
+        <v>94121</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3462,40 +3491,41 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6446</v>
+        <v>53</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Silvertall, Dls</t>
+          <t>Låga, Dls</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>341144.7921475561</v>
+        <v>341233.5557554136</v>
       </c>
       <c r="R25" t="n">
-        <v>6556064.246701518</v>
+        <v>6555969.561854991</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3539,7 +3569,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs. Upptäckare Ingvar 2 som såg något intressant på samma silvertall som ärgspiken.</t>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3567,10 +3597,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>99906692</v>
+        <v>100855566</v>
       </c>
       <c r="B26" t="n">
-        <v>73507</v>
+        <v>8377</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3583,40 +3613,46 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6428</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Blöt remsa, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>341353.6632309288</v>
+        <v>341098.8016433357</v>
       </c>
       <c r="R26" t="n">
-        <v>6555984.620782993</v>
+        <v>6556060.504905555</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3640,7 +3676,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3650,17 +3686,12 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3673,22 +3704,37 @@
       <c r="AG26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>99906701</v>
+        <v>100855567</v>
       </c>
       <c r="B27" t="n">
         <v>93375</v>
@@ -3724,17 +3770,17 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Tallhed, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>341172.2087173784</v>
+        <v>341160.2524783426</v>
       </c>
       <c r="R27" t="n">
-        <v>6556079.557143834</v>
+        <v>6556101.645775153</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3758,7 +3804,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3768,17 +3814,12 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3793,22 +3834,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>99907797</v>
+        <v>100855577</v>
       </c>
       <c r="B28" t="n">
-        <v>94121</v>
+        <v>89356</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3817,45 +3858,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Låga, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>341552.4551206058</v>
+        <v>341584.1303929769</v>
       </c>
       <c r="R28" t="n">
-        <v>6556232.891735436</v>
+        <v>6556251.625867508</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3879,7 +3916,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3889,7 +3926,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3897,40 +3934,49 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Robin Karlsson, Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>99907368</v>
+        <v>100855575</v>
       </c>
       <c r="B29" t="n">
-        <v>93375</v>
+        <v>56411</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3939,45 +3985,46 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Tallskog, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>341164.3885279179</v>
+        <v>341522.2974847538</v>
       </c>
       <c r="R29" t="n">
-        <v>6556089.649914237</v>
+        <v>6556225.918125159</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4001,7 +4048,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4011,7 +4058,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4019,37 +4066,31 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Robin Karlsson, Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99957040</v>
+        <v>101909725</v>
       </c>
       <c r="B30" t="n">
         <v>89412</v>
@@ -4087,30 +4128,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Bengtsfors, Dls</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>341038.3563264356</v>
+        <v>341334.2120006271</v>
       </c>
       <c r="R30" t="n">
-        <v>6556018.808509341</v>
+        <v>6555987.485145619</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4134,22 +4165,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4158,101 +4189,78 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Naturskog med tallinslag</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Nina Viereckel</t>
+          <t>Roger Adolfsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Nina Viereckel</t>
+          <t>Roger Adolfsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>99907131</v>
+        <v>99677166</v>
       </c>
       <c r="B31" t="n">
-        <v>94121</v>
+        <v>5113</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Låga, Dls</t>
+          <t>Bengtsfors, Dls</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>341233.5557554136</v>
+        <v>341246.7052525753</v>
       </c>
       <c r="R31" t="n">
-        <v>6555969.561854991</v>
+        <v>6555988.550884079</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4276,27 +4284,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4305,29 +4308,28 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Mayra Caldiz</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Robin Karlsson, Sebastian Kirppu</t>
+          <t>Mayra Caldiz</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>100855561</v>
+        <v>99132391</v>
       </c>
       <c r="B32" t="n">
-        <v>56411</v>
+        <v>94121</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4340,42 +4342,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>53</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>340780.9940205512</v>
+        <v>340559.737086219</v>
       </c>
       <c r="R32" t="n">
-        <v>6555738.02611561</v>
+        <v>6555829.515892345</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4399,7 +4396,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4409,7 +4406,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4425,26 +4422,36 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>tallåga</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>100855566</v>
+        <v>99132389</v>
       </c>
       <c r="B33" t="n">
-        <v>8377</v>
+        <v>89412</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4453,50 +4460,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>341098.8016433357</v>
+        <v>340910.2715792965</v>
       </c>
       <c r="R33" t="n">
-        <v>6556060.504905555</v>
+        <v>6555849.345858485</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4520,7 +4518,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4530,7 +4528,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4544,44 +4542,38 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>100855567</v>
+        <v>99132394</v>
       </c>
       <c r="B34" t="n">
-        <v>93375</v>
+        <v>8377</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4594,37 +4586,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2180</v>
+        <v>106545</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>341160.2524783426</v>
+        <v>340826.2260859018</v>
       </c>
       <c r="R34" t="n">
-        <v>6556101.645775153</v>
+        <v>6555933.562909372</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4648,7 +4640,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4658,7 +4650,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4666,6 +4658,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>gamla gnagspår</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4674,26 +4671,36 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>torrtall</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>100855577</v>
+        <v>99132396</v>
       </c>
       <c r="B35" t="n">
-        <v>89356</v>
+        <v>93375</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4706,37 +4713,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5447</v>
+        <v>2180</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>341584.1303929769</v>
+        <v>340879.9498507975</v>
       </c>
       <c r="R35" t="n">
-        <v>6556251.625867508</v>
+        <v>6555962.170636989</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4760,7 +4767,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4770,7 +4777,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4787,37 +4794,27 @@
       <c r="AG35" t="b">
         <v>0</v>
       </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>100855558</v>
+        <v>99132395</v>
       </c>
       <c r="B36" t="n">
         <v>89412</v>
@@ -4853,17 +4850,17 @@
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>340912.4125228857</v>
+        <v>340848.3967964154</v>
       </c>
       <c r="R36" t="n">
-        <v>6555863.65192385</v>
+        <v>6555946.519873871</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4887,7 +4884,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4897,7 +4894,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4913,26 +4910,36 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>100855575</v>
+        <v>99132393</v>
       </c>
       <c r="B37" t="n">
-        <v>56411</v>
+        <v>93375</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4941,46 +4948,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>341522.2974847538</v>
+        <v>340742.1469427192</v>
       </c>
       <c r="R37" t="n">
-        <v>6556225.918125159</v>
+        <v>6555893.368408962</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5004,7 +5006,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5014,7 +5016,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5030,26 +5032,31 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>100855557</v>
+        <v>100855558</v>
       </c>
       <c r="B38" t="n">
-        <v>93375</v>
+        <v>89412</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5058,25 +5065,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5086,10 +5093,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>341118.5954102003</v>
+        <v>340912.4125228857</v>
       </c>
       <c r="R38" t="n">
-        <v>6555904.938522851</v>
+        <v>6555863.65192385</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5158,10 +5165,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>101909725</v>
+        <v>100855561</v>
       </c>
       <c r="B39" t="n">
-        <v>89412</v>
+        <v>56411</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5174,42 +5181,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5442</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bengtsfors, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>341334.2120006271</v>
+        <v>340780.9940205512</v>
       </c>
       <c r="R39" t="n">
-        <v>6555987.485145619</v>
+        <v>6555738.02611561</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5233,22 +5240,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5263,26 +5270,26 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Roger Adolfsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Roger Adolfsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>101910138</v>
+        <v>100855557</v>
       </c>
       <c r="B40" t="n">
         <v>93375</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5309,21 +5316,19 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bengtsfors, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>341195.2841222521</v>
+        <v>341118.5954102003</v>
       </c>
       <c r="R40" t="n">
-        <v>6555916.144197992</v>
+        <v>6555904.938522851</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5347,22 +5352,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5377,26 +5382,26 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Roger Adolfsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Roger Adolfsson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>99677166</v>
+        <v>101910138</v>
       </c>
       <c r="B41" t="n">
-        <v>5113</v>
+        <v>93375</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5405,44 +5410,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Bengtsfors, Dls</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>341246.7052525753</v>
+        <v>341195.2841222521</v>
       </c>
       <c r="R41" t="n">
-        <v>6555988.550884079</v>
+        <v>6555916.144197992</v>
       </c>
       <c r="S41" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5466,22 +5466,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5496,12 +5496,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Mayra Caldiz</t>
+          <t>Roger Adolfsson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Mayra Caldiz</t>
+          <t>Roger Adolfsson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>

--- a/artfynd/A 9166-2022.xlsx
+++ b/artfynd/A 9166-2022.xlsx
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99132398</v>
+        <v>99132391</v>
       </c>
       <c r="B7" t="n">
-        <v>90653</v>
+        <v>94121</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1297,25 +1297,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>341080.8537766242</v>
+        <v>340559.737086219</v>
       </c>
       <c r="R7" t="n">
-        <v>6556037.603631846</v>
+        <v>6555829.515892345</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,6 +1385,11 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>barrnaturskog med talldominans</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1402,10 +1407,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99132409</v>
+        <v>99132389</v>
       </c>
       <c r="B8" t="n">
-        <v>8377</v>
+        <v>89412</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1414,25 +1419,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1442,10 +1447,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>341328.8048794235</v>
+        <v>340910.2715792965</v>
       </c>
       <c r="R8" t="n">
-        <v>6556142.448534912</v>
+        <v>6555849.345858485</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1490,11 +1495,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>gamla gnagspår</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>torrtall</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99132418</v>
+        <v>99132394</v>
       </c>
       <c r="B9" t="n">
-        <v>89356</v>
+        <v>8377</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1545,21 +1545,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>106545</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>341586.0590043708</v>
+        <v>340826.2260859018</v>
       </c>
       <c r="R9" t="n">
-        <v>6556248.461543149</v>
+        <v>6555933.562909372</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,6 +1617,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>gamla gnagspår</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1628,12 +1633,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>barrnaturskog med talldominans</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrtall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1651,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99132416</v>
+        <v>99132396</v>
       </c>
       <c r="B10" t="n">
-        <v>94121</v>
+        <v>93375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1663,25 +1668,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>2180</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1691,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>341548.2723863912</v>
+        <v>340879.9498507975</v>
       </c>
       <c r="R10" t="n">
-        <v>6556256.197766491</v>
+        <v>6555962.170636989</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1750,12 +1755,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>tallåga</t>
+          <t>barrnaturskog med talldominans</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99132405</v>
+        <v>99132398</v>
       </c>
       <c r="B11" t="n">
-        <v>93375</v>
+        <v>90653</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1789,21 +1789,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2180</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>341232.0755286817</v>
+        <v>341080.8537766242</v>
       </c>
       <c r="R11" t="n">
-        <v>6556107.398725042</v>
+        <v>6556037.603631846</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99132382</v>
+        <v>99132409</v>
       </c>
       <c r="B12" t="n">
-        <v>89412</v>
+        <v>8377</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1902,25 +1902,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>341335.2828762638</v>
+        <v>341328.8048794235</v>
       </c>
       <c r="R12" t="n">
-        <v>6555988.468844471</v>
+        <v>6556142.448534912</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1978,6 +1978,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>gamla gnagspår</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1994,7 +1999,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>torrtall</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2012,10 +2017,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99132388</v>
+        <v>99132418</v>
       </c>
       <c r="B13" t="n">
-        <v>93375</v>
+        <v>89356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2028,21 +2033,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2180</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2052,10 +2057,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>341071.4630821242</v>
+        <v>341586.0590043708</v>
       </c>
       <c r="R13" t="n">
-        <v>6555935.68925692</v>
+        <v>6556248.461543149</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2111,7 +2116,12 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>barrnaturskog med talldominans</t>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2129,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99132387</v>
+        <v>99132416</v>
       </c>
       <c r="B14" t="n">
-        <v>93375</v>
+        <v>94121</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2141,25 +2151,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2180</v>
+        <v>53</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2169,10 +2179,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>341163.2317166748</v>
+        <v>341548.2723863912</v>
       </c>
       <c r="R14" t="n">
-        <v>6555950.379509101</v>
+        <v>6556256.197766491</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2228,7 +2238,12 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>barrnaturskog med talldominans</t>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2246,7 +2261,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99132384</v>
+        <v>99132405</v>
       </c>
       <c r="B15" t="n">
         <v>93375</v>
@@ -2286,10 +2301,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>341213.330234039</v>
+        <v>341232.0755286817</v>
       </c>
       <c r="R15" t="n">
-        <v>6555990.966445948</v>
+        <v>6556107.398725042</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2363,10 +2378,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99132401</v>
+        <v>99132395</v>
       </c>
       <c r="B16" t="n">
-        <v>90653</v>
+        <v>89412</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2375,25 +2390,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>5442</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2403,10 +2418,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>341106.8138842176</v>
+        <v>340848.3967964154</v>
       </c>
       <c r="R16" t="n">
-        <v>6556055.0307057</v>
+        <v>6555946.519873871</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2463,6 +2478,11 @@
       <c r="AI16" t="inlineStr">
         <is>
           <t>barrnaturskog med talldominans</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2480,10 +2500,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99132404</v>
+        <v>99132382</v>
       </c>
       <c r="B17" t="n">
-        <v>79433</v>
+        <v>89412</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2496,21 +2516,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1049</v>
+        <v>5442</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2520,10 +2540,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>341144.3634203465</v>
+        <v>341335.2828762638</v>
       </c>
       <c r="R17" t="n">
-        <v>6556066.320872108</v>
+        <v>6555988.468844471</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2584,7 +2604,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>torraka</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2602,7 +2622,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99132402</v>
+        <v>99132388</v>
       </c>
       <c r="B18" t="n">
         <v>93375</v>
@@ -2642,10 +2662,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>341116.7527608229</v>
+        <v>341071.4630821242</v>
       </c>
       <c r="R18" t="n">
-        <v>6556058.729926346</v>
+        <v>6555935.68925692</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2719,10 +2739,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99906700</v>
+        <v>99132387</v>
       </c>
       <c r="B19" t="n">
-        <v>77258</v>
+        <v>93375</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2731,44 +2751,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6446</v>
+        <v>2180</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Silvertall, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>341144.7921475561</v>
+        <v>341163.2317166748</v>
       </c>
       <c r="R19" t="n">
-        <v>6556064.246701518</v>
+        <v>6555950.379509101</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2792,7 +2809,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2802,7 +2819,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2810,40 +2827,39 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs. Upptäckare Ingvar 2 som såg något intressant på samma silvertall som ärgspiken.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Robin Karlsson, Sebastian Kirppu</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99906692</v>
+        <v>99132393</v>
       </c>
       <c r="B20" t="n">
-        <v>73507</v>
+        <v>93375</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2856,40 +2872,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6428</v>
+        <v>2180</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Blöt remsa, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>341353.6632309288</v>
+        <v>340742.1469427192</v>
       </c>
       <c r="R20" t="n">
-        <v>6555984.620782993</v>
+        <v>6555893.368408962</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2913,7 +2926,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2923,7 +2936,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2931,37 +2944,36 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99906701</v>
+        <v>99132384</v>
       </c>
       <c r="B21" t="n">
         <v>93375</v>
@@ -2997,14 +3009,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Tallhed, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>341172.2087173784</v>
+        <v>341213.330234039</v>
       </c>
       <c r="R21" t="n">
-        <v>6556079.557143834</v>
+        <v>6555990.966445948</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3031,7 +3043,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3041,7 +3053,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3049,11 +3061,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -3062,26 +3069,31 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99907797</v>
+        <v>99132401</v>
       </c>
       <c r="B22" t="n">
-        <v>94121</v>
+        <v>90653</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3090,45 +3102,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Låga, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>341552.4551206058</v>
+        <v>341106.8138842176</v>
       </c>
       <c r="R22" t="n">
-        <v>6556232.891735436</v>
+        <v>6556055.0307057</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3152,7 +3160,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3162,7 +3170,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3170,40 +3178,39 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Robin Karlsson, Sebastian Kirppu</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99907368</v>
+        <v>99132404</v>
       </c>
       <c r="B23" t="n">
-        <v>93375</v>
+        <v>79433</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3212,45 +3219,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2180</v>
+        <v>1049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Tallskog, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>341164.3885279179</v>
+        <v>341144.3634203465</v>
       </c>
       <c r="R23" t="n">
-        <v>6556089.649914237</v>
+        <v>6556066.320872108</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3274,7 +3277,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3284,7 +3287,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3292,40 +3295,44 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>barrnaturskog med talldominans</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>torraka</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Robin Karlsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Robin Karlsson, Sebastian Kirppu</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99957040</v>
+        <v>99132402</v>
       </c>
       <c r="B24" t="n">
-        <v>89412</v>
+        <v>93375</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3334,53 +3341,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5442</v>
+        <v>2180</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bengtsfors, Dls</t>
+          <t>Sydväst Storetjärnet, Dls</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>341038.3563264356</v>
+        <v>341116.7527608229</v>
       </c>
       <c r="R24" t="n">
-        <v>6556018.808509341</v>
+        <v>6556058.729926346</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3407,22 +3399,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3431,58 +3423,37 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Naturskog med tallinslag</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+          <t>barrnaturskog med talldominans</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Nina Viereckel</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Nina Viereckel</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99907131</v>
+        <v>99906700</v>
       </c>
       <c r="B25" t="n">
-        <v>94121</v>
+        <v>77258</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3491,41 +3462,40 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>6446</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Låga, Dls</t>
+          <t>Silvertall, Dls</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>341233.5557554136</v>
+        <v>341144.7921475561</v>
       </c>
       <c r="R25" t="n">
-        <v>6555969.561854991</v>
+        <v>6556064.246701518</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3569,7 +3539,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
+          <t>Observerad under Naturskyddsföreningens signalartskurs. Upptäckare Ingvar 2 som såg något intressant på samma silvertall som ärgspiken.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3597,10 +3567,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>100855566</v>
+        <v>99906692</v>
       </c>
       <c r="B26" t="n">
-        <v>8377</v>
+        <v>73507</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3613,46 +3583,40 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>6428</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Blöt remsa, Dls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>341098.8016433357</v>
+        <v>341353.6632309288</v>
       </c>
       <c r="R26" t="n">
-        <v>6556060.504905555</v>
+        <v>6555984.620782993</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3676,7 +3640,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3686,12 +3650,17 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3704,37 +3673,22 @@
       <c r="AG26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>100855567</v>
+        <v>99906701</v>
       </c>
       <c r="B27" t="n">
         <v>93375</v>
@@ -3770,17 +3724,17 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Tallhed, Dls</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>341160.2524783426</v>
+        <v>341172.2087173784</v>
       </c>
       <c r="R27" t="n">
-        <v>6556101.645775153</v>
+        <v>6556079.557143834</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3804,7 +3758,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3814,12 +3768,17 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3834,22 +3793,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>100855577</v>
+        <v>99907797</v>
       </c>
       <c r="B28" t="n">
-        <v>89356</v>
+        <v>94121</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3858,41 +3817,45 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Låga, Dls</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>341584.1303929769</v>
+        <v>341552.4551206058</v>
       </c>
       <c r="R28" t="n">
-        <v>6556251.625867508</v>
+        <v>6556232.891735436</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3916,7 +3879,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3926,7 +3889,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3934,49 +3897,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Robin Karlsson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100855575</v>
+        <v>99907368</v>
       </c>
       <c r="B29" t="n">
-        <v>56411</v>
+        <v>93375</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3985,46 +3939,45 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Tallskog, Dls</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>341522.2974847538</v>
+        <v>341164.3885279179</v>
       </c>
       <c r="R29" t="n">
-        <v>6556225.918125159</v>
+        <v>6556089.649914237</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4048,7 +4001,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4058,7 +4011,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4066,31 +4019,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Robin Karlsson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>101909725</v>
+        <v>99957040</v>
       </c>
       <c r="B30" t="n">
         <v>89412</v>
@@ -4128,20 +4087,30 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Bengtsfors, Dls</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>341334.2120006271</v>
+        <v>341038.3563264356</v>
       </c>
       <c r="R30" t="n">
-        <v>6555987.485145619</v>
+        <v>6556018.808509341</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4165,22 +4134,22 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4189,78 +4158,101 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Naturskog med tallinslag</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Roger Adolfsson</t>
+          <t>Nina Viereckel</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Roger Adolfsson</t>
+          <t>Nina Viereckel</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>99677166</v>
+        <v>99907131</v>
       </c>
       <c r="B31" t="n">
-        <v>5113</v>
+        <v>94121</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>53</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bengtsfors, Dls</t>
+          <t>Låga, Dls</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>341246.7052525753</v>
+        <v>341233.5557554136</v>
       </c>
       <c r="R31" t="n">
-        <v>6555988.550884079</v>
+        <v>6555969.561854991</v>
       </c>
       <c r="S31" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4284,22 +4276,27 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Observerad under Naturskyddsföreningens signalartskurs</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4308,28 +4305,29 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Mayra Caldiz</t>
+          <t>Robin Karlsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Mayra Caldiz</t>
+          <t>Robin Karlsson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>99132391</v>
+        <v>100855561</v>
       </c>
       <c r="B32" t="n">
-        <v>94121</v>
+        <v>56411</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4342,37 +4340,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>53</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>340559.737086219</v>
+        <v>340780.9940205512</v>
       </c>
       <c r="R32" t="n">
-        <v>6555829.515892345</v>
+        <v>6555738.02611561</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4396,7 +4399,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4406,7 +4409,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4422,36 +4425,26 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>99132389</v>
+        <v>100855566</v>
       </c>
       <c r="B33" t="n">
-        <v>89412</v>
+        <v>8377</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4460,41 +4453,50 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>340910.2715792965</v>
+        <v>341098.8016433357</v>
       </c>
       <c r="R33" t="n">
-        <v>6555849.345858485</v>
+        <v>6556060.504905555</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4518,7 +4520,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4528,7 +4530,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4542,38 +4544,44 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>99132394</v>
+        <v>100855567</v>
       </c>
       <c r="B34" t="n">
-        <v>8377</v>
+        <v>93375</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4586,37 +4594,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106545</v>
+        <v>2180</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>340826.2260859018</v>
+        <v>341160.2524783426</v>
       </c>
       <c r="R34" t="n">
-        <v>6555933.562909372</v>
+        <v>6556101.645775153</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4640,7 +4648,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4650,7 +4658,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4658,11 +4666,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>gamla gnagspår</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4671,36 +4674,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>torrtall</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>99132396</v>
+        <v>100855577</v>
       </c>
       <c r="B35" t="n">
-        <v>93375</v>
+        <v>89356</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4713,37 +4706,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2180</v>
+        <v>5447</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>340879.9498507975</v>
+        <v>341584.1303929769</v>
       </c>
       <c r="R35" t="n">
-        <v>6555962.170636989</v>
+        <v>6556251.625867508</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4767,7 +4760,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4777,7 +4770,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4794,27 +4787,37 @@
       <c r="AG35" t="b">
         <v>0</v>
       </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>99132395</v>
+        <v>100855558</v>
       </c>
       <c r="B36" t="n">
         <v>89412</v>
@@ -4850,17 +4853,17 @@
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>340848.3967964154</v>
+        <v>340912.4125228857</v>
       </c>
       <c r="R36" t="n">
-        <v>6555946.519873871</v>
+        <v>6555863.65192385</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4884,7 +4887,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4894,7 +4897,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4910,36 +4913,26 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>gammeltall</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>99132393</v>
+        <v>100855575</v>
       </c>
       <c r="B37" t="n">
-        <v>93375</v>
+        <v>56411</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4948,41 +4941,46 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sydväst Storetjärnet, Dls</t>
+          <t>Kråkviken, Dls</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>340742.1469427192</v>
+        <v>341522.2974847538</v>
       </c>
       <c r="R37" t="n">
-        <v>6555893.368408962</v>
+        <v>6556225.918125159</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5006,7 +5004,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5016,7 +5014,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5032,31 +5030,26 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>barrnaturskog med talldominans</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>100855558</v>
+        <v>100855557</v>
       </c>
       <c r="B38" t="n">
-        <v>89412</v>
+        <v>93375</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5065,25 +5058,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5442</v>
+        <v>2180</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5093,10 +5086,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>340912.4125228857</v>
+        <v>341118.5954102003</v>
       </c>
       <c r="R38" t="n">
-        <v>6555863.65192385</v>
+        <v>6555904.938522851</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5165,10 +5158,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>100855561</v>
+        <v>101909725</v>
       </c>
       <c r="B39" t="n">
-        <v>56411</v>
+        <v>89412</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5181,42 +5174,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Bengtsfors, Dls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>340780.9940205512</v>
+        <v>341334.2120006271</v>
       </c>
       <c r="R39" t="n">
-        <v>6555738.02611561</v>
+        <v>6555987.485145619</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5240,22 +5233,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5270,26 +5263,26 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Roger Adolfsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Roger Adolfsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>100855557</v>
+        <v>101910138</v>
       </c>
       <c r="B40" t="n">
         <v>93375</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5316,19 +5309,21 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Kråkviken, Dls</t>
+          <t>Bengtsfors, Dls</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>341118.5954102003</v>
+        <v>341195.2841222521</v>
       </c>
       <c r="R40" t="n">
-        <v>6555904.938522851</v>
+        <v>6555916.144197992</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5352,22 +5347,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:01</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5382,26 +5377,26 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Roger Adolfsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Roger Adolfsson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>101910138</v>
+        <v>99677166</v>
       </c>
       <c r="B41" t="n">
-        <v>93375</v>
+        <v>5113</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5410,39 +5405,44 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Bengtsfors, Dls</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>341195.2841222521</v>
+        <v>341246.7052525753</v>
       </c>
       <c r="R41" t="n">
-        <v>6555916.144197992</v>
+        <v>6555988.550884079</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5466,22 +5466,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>15:01</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5496,12 +5496,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Roger Adolfsson</t>
+          <t>Mayra Caldiz</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Roger Adolfsson</t>
+          <t>Mayra Caldiz</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
